--- a/react-02/src/python/excel.xlsx
+++ b/react-02/src/python/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Blair</t>
   </si>
@@ -68,12 +68,21 @@
   </si>
   <si>
     <t>Roman</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Establishment - Mellow Gold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -459,15 +471,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -477,8 +492,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -488,8 +506,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -499,8 +520,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -510,8 +534,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -521,8 +548,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -532,8 +562,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -543,18 +576,22 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7" s="1">
+        <v>43993</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +676,17 @@
         <v>20.5</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -648,7 +696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/react-02/src/python/excel.xlsx
+++ b/react-02/src/python/excel.xlsx
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -114,7 +114,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +689,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/react-02/src/python/excel.xlsx
+++ b/react-02/src/python/excel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Blair</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Establishment - Mellow Gold</t>
+  </si>
+  <si>
+    <t>Beer Name</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +594,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>

--- a/react-02/src/python/excel.xlsx
+++ b/react-02/src/python/excel.xlsx
@@ -594,7 +594,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
